--- a/ProbandInnenliste.xlsx
+++ b/ProbandInnenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calti\Documents\GitHub\270300_Mental_Rotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC933A4C-CB0E-40CC-B358-8F72E67C058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528FA355-542A-4B09-A2C2-9908ADCBABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="25650" windowHeight="13920" xr2:uid="{01531558-76F8-421E-B04A-23B33A1EF437}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="10">
   <si>
     <t>SubjectID</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>Block Order</t>
+  </si>
+  <si>
+    <t>easy -&gt; hard</t>
+  </si>
+  <si>
+    <t>hard -&gt; easy</t>
   </si>
 </sst>
 </file>
@@ -407,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680A49B-6F58-4F4F-882B-4E873DBA032E}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +434,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,8 +448,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,8 +462,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -458,8 +476,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -469,8 +490,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -480,8 +504,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -491,8 +518,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -502,8 +532,11 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -513,8 +546,11 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -524,8 +560,11 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -535,8 +574,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -546,8 +588,11 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -557,8 +602,11 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -568,8 +616,11 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -579,8 +630,11 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -590,8 +644,11 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -601,8 +658,11 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -612,8 +672,11 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -623,8 +686,11 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -634,8 +700,11 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -645,8 +714,11 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -656,8 +728,11 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -667,8 +742,11 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -678,8 +756,11 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -689,8 +770,11 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -700,8 +784,11 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -711,8 +798,11 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -722,8 +812,11 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -733,8 +826,11 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -744,8 +840,11 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -755,8 +854,11 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -766,8 +868,11 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -777,8 +882,11 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -788,8 +896,11 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -799,8 +910,11 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -810,8 +924,11 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -821,8 +938,11 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -832,8 +952,11 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -843,8 +966,11 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -854,8 +980,11 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -864,6 +993,9 @@
       </c>
       <c r="C41" t="s">
         <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
